--- a/biology/Botanique/John_McEwen_Dalziel/John_McEwen_Dalziel.xlsx
+++ b/biology/Botanique/John_McEwen_Dalziel/John_McEwen_Dalziel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John McEwen Dalziel[1] ou John McEwan Dalziel (né le 16 mai 1872 à Nagpur, Inde, et mort le 21 février 1948 à Chiswick) est un médecin, explorateur et botaniste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John McEwen Dalziel ou John McEwan Dalziel (né le 16 mai 1872 à Nagpur, Inde, et mort le 21 février 1948 à Chiswick) est un médecin, explorateur et botaniste britannique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il travaille comme médecin en Chine (1895-1902)[2], puis au service médical d'Afrique occidentale[2]. Il occupe ensuite des fonctions de fonctionnaire commissaire aux forêts de 1905 à 1922, puis rentre en Angleterre, où il travaille à Kew Gardens. Il participe à des expéditions financées par le philanthrope américain Allison Vincent Armour (1925-1927)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il travaille comme médecin en Chine (1895-1902), puis au service médical d'Afrique occidentale. Il occupe ensuite des fonctions de fonctionnaire commissaire aux forêts de 1905 à 1922, puis rentre en Angleterre, où il travaille à Kew Gardens. Il participe à des expéditions financées par le philanthrope américain Allison Vincent Armour (1925-1927).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flora of West Tropical Africa, avec John Hutchinson &amp; Arthur Hugh Garfit Alston, Londres, Secretary of State for the Colonies, 1927 (rééd. 1954[3].)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Flora of West Tropical Africa, avec John Hutchinson &amp; Arthur Hugh Garfit Alston, Londres, Secretary of State for the Colonies, 1927 (rééd. 1954.)</t>
         </is>
       </c>
     </row>
